--- a/testdata/demowrite.xlsx
+++ b/testdata/demowrite.xlsx
@@ -14,22 +14,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Vehicle Brand</t>
+    <t>Car</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>HondaCity</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>I10</t>
   </si>
   <si>
     <t>Hyundai</t>
-  </si>
-  <si>
-    <t>200k</t>
-  </si>
-  <si>
-    <t>TATA</t>
-  </si>
-  <si>
-    <t>1000K</t>
   </si>
 </sst>
 </file>
